--- a/biology/Botanique/Mimosa_pigra/Mimosa_pigra.xlsx
+++ b/biology/Botanique/Mimosa_pigra/Mimosa_pigra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mimosa pigra est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire des Amériques. 
@@ -516,13 +528,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (28 décembre 2018)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (28 décembre 2018) :
 Mimosa asperata var. pigra Willd.
 Mimosa brasiliensis Niederl.
 Mimosa canescens Willd.
 Mimosa hispida Willd.
-Mimosa pellita Humb. &amp; Bonpl. ex Willd. [2]
+Mimosa pellita Humb. &amp; Bonpl. ex Willd. 
 Mimosa pigra var. pigra</t>
         </is>
       </c>
@@ -551,9 +568,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (28 décembre 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (28 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Mimosa pigra var. asperata (L.) Zarucchi, Vincent &amp; Gandhi
 Mimosa pigra var. berlandieri (A. Gray) B.L. Turner
 Mimosa pigra var. dehiscens (Barneby) Glazier &amp; Mackinder
